--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1608932883359198</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.435877144932754</v>
+        <v>-2.523494079909643</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04728078390426335</v>
+        <v>-0.2189960214738813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08702496895701251</v>
+        <v>0.004827179193030228</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1813141366916034</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.526244822161777</v>
+        <v>-2.644909769188525</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1387823036713605</v>
+        <v>-0.2673432136783464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07155006154656078</v>
+        <v>-0.01344299467895785</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2117182531311647</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.704122088328581</v>
+        <v>-2.834189502407134</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.196020309580782</v>
+        <v>-0.2151370533520964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1049005241511446</v>
+        <v>0.004273371218542992</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2313823887091795</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.887039129047353</v>
+        <v>-3.01534478725112</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2356450261870731</v>
+        <v>-0.1472675201262795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1321353121299756</v>
+        <v>0.0166285343674284</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2268944576769665</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.080737127648325</v>
+        <v>-3.154132847165818</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2384506613001141</v>
+        <v>-0.1195801710053014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1312021334945511</v>
+        <v>0.002699775872533002</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1960679902703572</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.984830150833077</v>
+        <v>-2.975931103198984</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2446986887127212</v>
+        <v>-0.04088454576720647</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1238775960874837</v>
+        <v>0.03451689789577219</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1467318817964602</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.773832362156823</v>
+        <v>-2.740941169821831</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2802637732945772</v>
+        <v>-0.07137021095310465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1655229798958411</v>
+        <v>0.06116311242154135</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08497386902904634</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.344504318428451</v>
+        <v>-2.233577435027605</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2925451360415762</v>
+        <v>-0.1159706604403064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1704999326181052</v>
+        <v>0.07171413020860601</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01362912377731968</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.950257692185274</v>
+        <v>-1.764222127046288</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.40408011035714</v>
+        <v>-0.1798671703777864</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2069750188496693</v>
+        <v>0.1425057933967228</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06881323405205128</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.425733229230065</v>
+        <v>-1.219552594058768</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5599654666824389</v>
+        <v>-0.2875980694324727</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2575026774735087</v>
+        <v>0.2271481452331113</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1621444987388104</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8460194839186316</v>
+        <v>-0.6638373976153402</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9141506731147734</v>
+        <v>-0.6329967585955746</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3071252138130539</v>
+        <v>0.2918101056199102</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2736535095594648</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2724891144280698</v>
+        <v>-0.1338029112663894</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.239806229971541</v>
+        <v>-0.928330718928489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.382787093605004</v>
+        <v>0.3602578436472842</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4136285356303473</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3590514205486766</v>
+        <v>0.5455749222290607</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.62809759072695</v>
+        <v>-1.207350520999746</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5524395794458601</v>
+        <v>0.5663616288133112</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5927229564458095</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9038459872749304</v>
+        <v>1.033327877503806</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.976587967800488</v>
+        <v>-1.541467507405039</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6376607460044824</v>
+        <v>0.6361633907430659</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8065826451774788</v>
       </c>
       <c r="E16" t="n">
-        <v>1.465107192432028</v>
+        <v>1.59378703697098</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.365860690924785</v>
+        <v>-1.798607015118637</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7692846776500971</v>
+        <v>0.7045141513828371</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.044508907383519</v>
       </c>
       <c r="E17" t="n">
-        <v>1.985098724917645</v>
+        <v>2.093926871269801</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.749121425938376</v>
+        <v>-2.169555891351392</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8913462729256557</v>
+        <v>0.7510828148939048</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.288425725530209</v>
       </c>
       <c r="E18" t="n">
-        <v>2.367669029725158</v>
+        <v>2.429053886315789</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.113929620797631</v>
+        <v>-2.4969180062617</v>
       </c>
       <c r="G18" t="n">
-        <v>1.075256874426851</v>
+        <v>0.9422319549867462</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.523126837456355</v>
       </c>
       <c r="E19" t="n">
-        <v>2.619064914425819</v>
+        <v>2.555794183102682</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.456377208766288</v>
+        <v>-2.839078626551947</v>
       </c>
       <c r="G19" t="n">
-        <v>1.185790358991195</v>
+        <v>1.031670723025081</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.733010250332851</v>
       </c>
       <c r="E20" t="n">
-        <v>2.93980024118326</v>
+        <v>2.854633357564868</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.851490837251462</v>
+        <v>-3.154802540068887</v>
       </c>
       <c r="G20" t="n">
-        <v>1.332316482531795</v>
+        <v>1.151305443927859</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.903699077421708</v>
       </c>
       <c r="E21" t="n">
-        <v>3.259345002779688</v>
+        <v>3.137771953966205</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.137715632277144</v>
+        <v>-3.445826190979223</v>
       </c>
       <c r="G21" t="n">
-        <v>1.521749915760944</v>
+        <v>1.343240771773029</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.024434194312617</v>
       </c>
       <c r="E22" t="n">
-        <v>3.426086337230426</v>
+        <v>3.283905288590979</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.366370014624577</v>
+        <v>-3.677985787455927</v>
       </c>
       <c r="G22" t="n">
-        <v>1.59251535235996</v>
+        <v>1.346638029942516</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.093697914355605</v>
       </c>
       <c r="E23" t="n">
-        <v>3.608669751339018</v>
+        <v>3.415998249237013</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.604172902162893</v>
+        <v>-3.902652508418781</v>
       </c>
       <c r="G23" t="n">
-        <v>1.693873190263306</v>
+        <v>1.513179920331957</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.116003533331804</v>
       </c>
       <c r="E24" t="n">
-        <v>3.716809907167802</v>
+        <v>3.466115431245401</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.810550846673117</v>
+        <v>-4.047835586629182</v>
       </c>
       <c r="G24" t="n">
-        <v>1.751199024750179</v>
+        <v>1.550520484003826</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.099040973181129</v>
       </c>
       <c r="E25" t="n">
-        <v>3.804866594952626</v>
+        <v>3.513541643227976</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.896425848197214</v>
+        <v>-4.090632500675239</v>
       </c>
       <c r="G25" t="n">
-        <v>1.782697768180156</v>
+        <v>1.579427064557624</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.048823085475894</v>
       </c>
       <c r="E26" t="n">
-        <v>3.786747071487794</v>
+        <v>3.349924322483542</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.931834183165146</v>
+        <v>-4.107917347693941</v>
       </c>
       <c r="G26" t="n">
-        <v>1.763629208142305</v>
+        <v>1.548036887008108</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.973002996269561</v>
       </c>
       <c r="E27" t="n">
-        <v>3.901557319837496</v>
+        <v>3.447716564110619</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.960924349842644</v>
+        <v>-4.048661724185837</v>
       </c>
       <c r="G27" t="n">
-        <v>1.728272716431897</v>
+        <v>1.493591097956839</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.880217061274556</v>
       </c>
       <c r="E28" t="n">
-        <v>3.828250953699146</v>
+        <v>3.314740438324654</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.854448667540706</v>
+        <v>-3.918789789684181</v>
       </c>
       <c r="G28" t="n">
-        <v>1.663814469551132</v>
+        <v>1.426745621547282</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.780808580892765</v>
       </c>
       <c r="E29" t="n">
-        <v>3.790097975685848</v>
+        <v>3.148152803884457</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.83990297428128</v>
+        <v>-3.890716360774821</v>
       </c>
       <c r="G29" t="n">
-        <v>1.640617356452373</v>
+        <v>1.397872586630706</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.68192253192148</v>
       </c>
       <c r="E30" t="n">
-        <v>3.710563099596548</v>
+        <v>2.983455923542178</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.693152704891975</v>
+        <v>-3.644249854983638</v>
       </c>
       <c r="G30" t="n">
-        <v>1.569959265892464</v>
+        <v>1.283081245821984</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.588780674318331</v>
       </c>
       <c r="E31" t="n">
-        <v>3.573638347349316</v>
+        <v>2.854855368691204</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.63504312233548</v>
+        <v>-3.616715900912862</v>
       </c>
       <c r="G31" t="n">
-        <v>1.482746708324259</v>
+        <v>1.120413571571247</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.501519210940397</v>
       </c>
       <c r="E32" t="n">
-        <v>3.406472508107562</v>
+        <v>2.63024110090655</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.49960352693613</v>
+        <v>-3.497428224875154</v>
       </c>
       <c r="G32" t="n">
-        <v>1.416997869291495</v>
+        <v>1.088073137607358</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.419601284431549</v>
       </c>
       <c r="E33" t="n">
-        <v>3.237476906835564</v>
+        <v>2.355286420145819</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.372781500778553</v>
+        <v>-3.423424109482605</v>
       </c>
       <c r="G33" t="n">
-        <v>1.289261572039472</v>
+        <v>0.9171855623960872</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.339569748930073</v>
       </c>
       <c r="E34" t="n">
-        <v>2.990550520854112</v>
+        <v>2.11949108651502</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.152369586456693</v>
+        <v>-3.185751135048437</v>
       </c>
       <c r="G34" t="n">
-        <v>1.187917152391015</v>
+        <v>0.7912515807438552</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.259847796302458</v>
       </c>
       <c r="E35" t="n">
-        <v>2.751826348133569</v>
+        <v>1.921573046751628</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.063276948402413</v>
+        <v>-3.103567678420358</v>
       </c>
       <c r="G35" t="n">
-        <v>1.113449497284138</v>
+        <v>0.7569514716455746</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.177014424385779</v>
       </c>
       <c r="E36" t="n">
-        <v>2.551217338344365</v>
+        <v>1.720907314339487</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.838182063124481</v>
+        <v>-2.883653459370725</v>
       </c>
       <c r="G36" t="n">
-        <v>1.056862276736806</v>
+        <v>0.6548202543241123</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.090169295218884</v>
       </c>
       <c r="E37" t="n">
-        <v>2.290157870441308</v>
+        <v>1.450042761637028</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.764256932459571</v>
+        <v>-2.828122011514845</v>
       </c>
       <c r="G37" t="n">
-        <v>1.005331298599716</v>
+        <v>0.6563627437156082</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9976657498655215</v>
       </c>
       <c r="E38" t="n">
-        <v>2.041162633524327</v>
+        <v>1.233477007102742</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.633575938180209</v>
+        <v>-2.725676685044857</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9604161300433127</v>
+        <v>0.6256690955789389</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8998293978598423</v>
       </c>
       <c r="E39" t="n">
-        <v>1.822035822068375</v>
+        <v>1.069882253423347</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.501323788237544</v>
+        <v>-2.592323628280662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8625836336515708</v>
+        <v>0.4987293547307494</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7971114385420278</v>
       </c>
       <c r="E40" t="n">
-        <v>1.593252746458149</v>
+        <v>0.8263842315658968</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.419815513798625</v>
+        <v>-2.558029008468472</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7568331470342855</v>
+        <v>0.4297180499980601</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6914251267298356</v>
       </c>
       <c r="E41" t="n">
-        <v>1.312394033546496</v>
+        <v>0.558838257265624</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.262688054015129</v>
+        <v>-2.435134871469152</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7130926857012986</v>
+        <v>0.4156337617305939</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5862383083261834</v>
       </c>
       <c r="E42" t="n">
-        <v>1.056781157286799</v>
+        <v>0.2869520874296119</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.193742925675867</v>
+        <v>-2.409013798646063</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6735015147322286</v>
+        <v>0.4072638202835803</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4855773133529891</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8727192954577701</v>
+        <v>0.1463586623117403</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.072719110431795</v>
+        <v>-2.298495562098638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6025665201850759</v>
+        <v>0.326821382227279</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3935720481712529</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6676908004448499</v>
+        <v>-0.0507512325549598</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.005058170077426</v>
+        <v>-2.225164189212542</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5576348837704</v>
+        <v>0.3355158014743225</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3121255930447137</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5874624445460871</v>
+        <v>-0.09354936644237102</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.877556692285951</v>
+        <v>-2.198562498896176</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4966031712516056</v>
+        <v>0.2948810562273367</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2419342708177726</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3849462128006921</v>
+        <v>-0.2541329417406602</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.818208360834982</v>
+        <v>-2.19876438264018</v>
       </c>
       <c r="G46" t="n">
-        <v>0.386074566052676</v>
+        <v>0.1940020060552381</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1811846717509049</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2439941543248927</v>
+        <v>-0.3555834875868717</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.745034347483487</v>
+        <v>-2.13546986441065</v>
       </c>
       <c r="G47" t="n">
-        <v>0.342673220615961</v>
+        <v>0.1846464327945997</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.128427185260272</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1491075748018438</v>
+        <v>-0.367866070175224</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.658562233616854</v>
+        <v>-2.027976834419895</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2891770780583888</v>
+        <v>0.1151941554126216</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0806162448664015</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04834440955832742</v>
+        <v>-0.461479135325223</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.565004061327762</v>
+        <v>-1.935071887175601</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2323355205888536</v>
+        <v>0.09230505225562044</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03632357898786313</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.07698026133783328</v>
+        <v>-0.5162945363066012</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.503341690829211</v>
+        <v>-1.889962763843991</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1865158396688325</v>
+        <v>0.0440469084699606</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.006664203902656726</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1352978268450988</v>
+        <v>-0.5766205706023981</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.395809015994468</v>
+        <v>-1.77222855576996</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1366853203785161</v>
+        <v>0.04079969078695394</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04806529965728878</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2300252170715165</v>
+        <v>-0.6887733945635077</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.327289917247914</v>
+        <v>-1.745587830530282</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07743335639447255</v>
+        <v>-0.02895449733001446</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08814026871182244</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3429520303714194</v>
+        <v>-0.7655105645085647</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.250131902035901</v>
+        <v>-1.692670502694944</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07475702446490207</v>
+        <v>-0.03076718158130969</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1253952144712318</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4191109955149191</v>
+        <v>-0.8614364488647922</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.194163141054792</v>
+        <v>-1.661604802945458</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02002396277488484</v>
+        <v>-0.1268937298401873</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1602472671844137</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3922604575624394</v>
+        <v>-0.8502761203216562</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.143678176878325</v>
+        <v>-1.644605093843136</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.002371714554627099</v>
+        <v>-0.1418398360238985</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1920067922966828</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4358350204713509</v>
+        <v>-0.8798706913988256</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.116539756366421</v>
+        <v>-1.658289274146656</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07054193867408079</v>
+        <v>-0.1981349045670675</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2214579389237768</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5637115994790255</v>
+        <v>-1.026740200280435</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.08606384991135</v>
+        <v>-1.627950599843853</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08638157864922785</v>
+        <v>-0.1757813117642512</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2488667745902574</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6070641512616007</v>
+        <v>-1.063655649240611</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.057706807887303</v>
+        <v>-1.569539106552369</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1180687875683197</v>
+        <v>-0.2399047121934815</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2752686138217075</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6611464275895277</v>
+        <v>-1.088058575517301</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.035822854005582</v>
+        <v>-1.633874759377107</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1242173979106169</v>
+        <v>-0.2399669241025098</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3010233940767849</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7741019071612378</v>
+        <v>-1.269818596712282</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.07547440712165</v>
+        <v>-1.655614162058439</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1623923330682778</v>
+        <v>-0.2652548452811611</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3271007570850598</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8246307856264307</v>
+        <v>-1.413001745023626</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.043213262845739</v>
+        <v>-1.606139836443343</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.133745578722775</v>
+        <v>-0.2548099536918506</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3539562475734894</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8380679480558672</v>
+        <v>-1.384811821265008</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.986928562954074</v>
+        <v>-1.558727652636333</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1713520678097068</v>
+        <v>-0.2976410232958062</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3824450805362384</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.928553339975502</v>
+        <v>-1.521554207229892</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.02858553525529</v>
+        <v>-1.593574860581656</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2105888748655861</v>
+        <v>-0.3259870867476722</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4124103767165577</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9949816306421633</v>
+        <v>-1.632002912820168</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.0752999698081</v>
+        <v>-1.609677376368482</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.201113757152305</v>
+        <v>-0.3214767233431203</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4439134348119921</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.05328028860845</v>
+        <v>-1.664436054726922</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.125034731552167</v>
+        <v>-1.657451243136804</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2293201487691957</v>
+        <v>-0.340403781783966</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4770601103216612</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.075436877032676</v>
+        <v>-1.657506135997711</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.174781691709769</v>
+        <v>-1.688554757968248</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2592892111418883</v>
+        <v>-0.3891834077482454</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5122383580276082</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.09894260999387</v>
+        <v>-1.67016077019888</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.213217672917078</v>
+        <v>-1.745205410265961</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2620515418868802</v>
+        <v>-0.4076816919533373</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5497497030395352</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.150085068659871</v>
+        <v>-1.705724025018705</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.287415133164156</v>
+        <v>-1.755599068518424</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.302580160936112</v>
+        <v>-0.4291807858880296</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5897085816370174</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.119748224119099</v>
+        <v>-1.586763876384411</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.409521252649117</v>
+        <v>-1.889678540808627</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2772739421371583</v>
+        <v>-0.3870968691130903</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6321031652925854</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.151908121562671</v>
+        <v>-1.634538353073409</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.437537349014863</v>
+        <v>-1.86399966047618</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.288364739723145</v>
+        <v>-0.4022546177716331</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6759888771951931</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.198872013672271</v>
+        <v>-1.678843600953065</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.489264111689189</v>
+        <v>-1.934861464542123</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3004655659498264</v>
+        <v>-0.3942298914276589</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7207780159172361</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.169008467576656</v>
+        <v>-1.604557702207859</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.610236388636075</v>
+        <v>-2.099941375069398</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3378354058141799</v>
+        <v>-0.4220068988881189</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7652234614824848</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.175465087860711</v>
+        <v>-1.644472741056282</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.654151897203289</v>
+        <v>-2.158473022734203</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3697275480806592</v>
+        <v>-0.4529744014086481</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8082651837732262</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.135403058129192</v>
+        <v>-1.577507720194082</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.715964308188321</v>
+        <v>-2.221860248906598</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3914126678217596</v>
+        <v>-0.4612205289582818</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.847994046884708</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.088381833475977</v>
+        <v>-1.442465793075971</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.788702838176618</v>
+        <v>-2.327144756126848</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3842320716944047</v>
+        <v>-0.4623305845899633</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8827588858966227</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9802258197095975</v>
+        <v>-1.339104975670185</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.803944755888552</v>
+        <v>-2.344759875192008</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3596437295319835</v>
+        <v>-0.4353428144852152</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.909797399630957</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9313540957231291</v>
+        <v>-1.199032422810256</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.825053500590125</v>
+        <v>-2.36240671013236</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3300479386134608</v>
+        <v>-0.364830494967049</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9264102789493036</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7447976583262006</v>
+        <v>-1.015032772890256</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.852186431815939</v>
+        <v>-2.395094188961319</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3477466168113359</v>
+        <v>-0.3871840877698653</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9294351410233371</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6327180248463008</v>
+        <v>-0.8109771013567486</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.870394393778899</v>
+        <v>-2.358463572957184</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3333390705851932</v>
+        <v>-0.3605519014196614</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9176387675902433</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4866292144309292</v>
+        <v>-0.638285380783657</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.910807737820226</v>
+        <v>-2.511271269547612</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2916089078027679</v>
+        <v>-0.2857073153345537</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.891487977903147</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2228068058622032</v>
+        <v>-0.3205087792291211</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.904645099302363</v>
+        <v>-2.53331319288461</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2800106562137268</v>
+        <v>-0.2571441201217654</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8532834875597196</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02609145366717452</v>
+        <v>0.06960807411179495</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.86220925829694</v>
+        <v>-2.54520237663646</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1950102809400872</v>
+        <v>-0.1679755469432296</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8051747822699657</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1847415804201724</v>
+        <v>0.2210837039442054</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.838011875288315</v>
+        <v>-2.552507396581872</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1538589328798957</v>
+        <v>-0.08272510419212324</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.749607442912038</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4268319053556883</v>
+        <v>0.5035709050627755</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.727946809803713</v>
+        <v>-2.472752949048942</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.131494361504898</v>
+        <v>-0.06052582132052418</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6875538296056867</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6240680538024752</v>
+        <v>0.6810511128690161</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.677367307922351</v>
+        <v>-2.445769448388931</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1074275015210963</v>
+        <v>-0.02115422179508354</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.6196692447353231</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8900526311702731</v>
+        <v>0.9810168108211552</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.652065968488811</v>
+        <v>-2.484382306592497</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.105271431928792</v>
+        <v>-0.0159692861220483</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5462078250306194</v>
       </c>
       <c r="E87" t="n">
-        <v>1.061368370696621</v>
+        <v>1.158395771795056</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.524233303769862</v>
+        <v>-2.395443063588419</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06541799506872036</v>
+        <v>0.05235707769065289</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4696385321551803</v>
       </c>
       <c r="E88" t="n">
-        <v>1.233972872612938</v>
+        <v>1.367449133353836</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.337881799720321</v>
+        <v>-2.292795243453751</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04186041885000336</v>
+        <v>0.074931461778452</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3926965352634008</v>
       </c>
       <c r="E89" t="n">
-        <v>1.328215375901341</v>
+        <v>1.422548757370579</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.113854885547375</v>
+        <v>-2.089228728302996</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003102323519186721</v>
+        <v>0.1284544408458011</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3190008073261664</v>
       </c>
       <c r="E90" t="n">
-        <v>1.407932008352312</v>
+        <v>1.462057589048288</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.906830120159459</v>
+        <v>-1.925501621836747</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.002657767352021939</v>
+        <v>0.1105611979520433</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.250338546131418</v>
       </c>
       <c r="E91" t="n">
-        <v>1.449578612002023</v>
+        <v>1.531248820380618</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.569952022850527</v>
+        <v>-1.572736920660559</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.002134455411372105</v>
+        <v>0.122128953507247</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1889882222711383</v>
       </c>
       <c r="E92" t="n">
-        <v>1.477664849245594</v>
+        <v>1.600114354071564</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.295046745664612</v>
+        <v>-1.304334617730132</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01546785531957685</v>
+        <v>0.1125172135623743</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1356276211949064</v>
       </c>
       <c r="E93" t="n">
-        <v>1.517532314281231</v>
+        <v>1.657196220287738</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.004673880116367</v>
+        <v>-1.034760657179672</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006894200366529397</v>
+        <v>0.1515509170328966</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09255439279080968</v>
       </c>
       <c r="E94" t="n">
-        <v>1.558165229766187</v>
+        <v>1.718472510997909</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7515665579967505</v>
+        <v>-0.7646578954024709</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0005016977597175538</v>
+        <v>0.1436463450622417</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06001738055688823</v>
       </c>
       <c r="E95" t="n">
-        <v>1.543326469621583</v>
+        <v>1.719555730119813</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5285789486569838</v>
+        <v>-0.5333040041397511</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0572682349860128</v>
+        <v>0.1082081239811493</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03771591101851804</v>
       </c>
       <c r="E96" t="n">
-        <v>1.455816880683802</v>
+        <v>1.672777863816621</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3317795034147485</v>
+        <v>-0.3343338512089694</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1004231724693216</v>
+        <v>0.02834328080572835</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02239236499517976</v>
       </c>
       <c r="E97" t="n">
-        <v>1.383304021345902</v>
+        <v>1.579037325245182</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1625015088694157</v>
+        <v>-0.1620739544750154</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1162628124444687</v>
+        <v>0.03535614874697752</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.008768188177795753</v>
       </c>
       <c r="E98" t="n">
-        <v>1.313558372118408</v>
+        <v>1.514248501357619</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04242764507937906</v>
+        <v>-0.03557701603814487</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.174104029903194</v>
+        <v>-0.00774816532016123</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.007411600278639706</v>
       </c>
       <c r="E99" t="n">
-        <v>1.246678130230277</v>
+        <v>1.429961733275775</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07685332183088514</v>
+        <v>0.07869101282992703</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2016541468719038</v>
+        <v>-0.04383046263589959</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02969443840744317</v>
       </c>
       <c r="E100" t="n">
-        <v>1.099659190782864</v>
+        <v>1.236580893426712</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1344700884805672</v>
+        <v>0.1318730462389739</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.172772573065853</v>
+        <v>-0.00349274875849003</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.05589375300096053</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9754451854390617</v>
+        <v>1.102586810031255</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2051306187231832</v>
+        <v>0.1956372033895997</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2378803854673547</v>
+        <v>-0.11829567806007</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.08259475017344249</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8463225384887908</v>
+        <v>0.909540816633727</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2000164338486507</v>
+        <v>0.1904010343797176</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2242474385006821</v>
+        <v>-0.09094073570791958</v>
       </c>
     </row>
   </sheetData>
